--- a/docs/画面項目定義書/mo_physical_node_add.xlsx
+++ b/docs/画面項目定義書/mo_physical_node_add.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{045D7621-0F8F-4FFA-90A9-0D2E81A155EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C427B6-85AA-45EE-AEF5-776C0F8D97B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -953,20 +953,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.76953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.40625" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.25">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.25">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -986,7 +986,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -995,7 +995,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.25">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1004,7 +1004,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.25">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="38" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.25">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1037,7 +1037,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.25">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.5">
+    <row r="9" spans="1:7" ht="24">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.5">
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.5">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.25">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
     </row>
-    <row r="13" spans="1:7" ht="13.25">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="13.25">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7" ht="13.25">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="13.25">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13.25">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13.25">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.25">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.25">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.25">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.25">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.25">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.25">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.25">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1276,7 +1276,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.25">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1285,7 +1285,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.25">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1294,7 +1294,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
